--- a/0. Analisis Data/Percobaan_20241212.xlsx
+++ b/0. Analisis Data/Percobaan_20241212.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\EXP_Result\0. Analisis Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF14F7B-A93F-49ED-A6D3-93066154533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B6F60A-6715-401B-8897-A13DD7D17412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{E82650B2-C25F-477C-953B-D9F6D97D9D4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{E82650B2-C25F-477C-953B-D9F6D97D9D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics_1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="119">
   <si>
     <t>DATASET</t>
   </si>
@@ -377,6 +377,27 @@
   </si>
   <si>
     <t>MaelNetS2_AnomalyTransformer_DCDetector_RL_TA_PSM_ftM_dm512_nh8_el4_dl1_df512_fc5_ebtimeF_dtTrue</t>
+  </si>
+  <si>
+    <t>EXP_1: e_layer 3, d_layer 1, d_ff 512, d_model 512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>EXP_2: e_layer 4, d_layer 1, d_ff 512, d_model 512</t>
+  </si>
+  <si>
+    <t>EXP_3: e_layer 3, d_layer 2, d_ff 512, d_model 512</t>
+  </si>
+  <si>
+    <t>EXP_4: e_layer 4, d_layer 2, d_ff 512, d_model 512</t>
+  </si>
+  <si>
+    <t>EXP_5: e_layer 3, d_layer 3, d_ff 512, d_model 512</t>
+  </si>
+  <si>
+    <t>EXP_6: e_layer 4, d_layer 3, d_ff 512, d_model 512</t>
   </si>
 </sst>
 </file>
@@ -1124,11 +1145,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="36" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="36" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="36" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="36" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1502,31 +1523,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
       <c r="R1" s="5" t="s">
         <v>91</v>
       </c>
@@ -2057,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6410F4D-F714-4037-B85A-CBDA162AE7B8}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2072,31 +2093,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
       <c r="R1" s="5" t="s">
         <v>91</v>
       </c>
@@ -2360,10 +2381,10 @@
       <c r="N8" s="26">
         <v>0.91753830000000003</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="40">
         <v>0.9683512822</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="41">
         <v>0.9422602443522935</v>
       </c>
       <c r="R8" s="6" t="s">
@@ -2472,7 +2493,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2486,31 +2507,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
       <c r="R1" s="5" t="s">
         <v>91</v>
       </c>
@@ -2574,7 +2595,7 @@
         <v>93</v>
       </c>
       <c r="S2" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -2850,7 +2871,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2864,31 +2885,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
       <c r="R1" s="5" t="s">
         <v>91</v>
       </c>
@@ -2952,7 +2973,7 @@
         <v>93</v>
       </c>
       <c r="S2" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -3228,7 +3249,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3242,31 +3263,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
       <c r="R1" s="5" t="s">
         <v>91</v>
       </c>
@@ -3365,7 +3386,7 @@
         <v>94</v>
       </c>
       <c r="S3" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -3642,7 +3663,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3656,31 +3677,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
       <c r="R1" s="5" t="s">
         <v>91</v>
       </c>
@@ -3744,7 +3765,7 @@
         <v>93</v>
       </c>
       <c r="S2" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -3773,7 +3794,7 @@
         <v>94</v>
       </c>
       <c r="S3" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -6113,14 +6134,50 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541E3203-6C65-4060-A47D-6B9B67FB1B76}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>